--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3994413.568704096</v>
+        <v>3992161.488992888</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>120.7740905403541</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>325.6326162183681</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>158.0933671656953</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>215.7098141956738</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>179.049755630705</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>87.28121759428662</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,16 +1060,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>13.02719212039631</v>
+        <v>11.03304066191151</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6171786497991</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>243.2012226245584</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991708</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>164.3975590884503</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710089</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,10 +1379,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187881</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444138</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
         <v>349.2409687174131</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.799772605717012</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>130.120807446024</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417143</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>83.06560892428297</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832891</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>41.16673120696744</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>34.56584948763727</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>52.10645541514128</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>87.21471514852939</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695412</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>100.7197280522379</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>133.3722917337067</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>80.33989744909022</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1127.748203495403</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1127.748203495403</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D2" t="n">
-        <v>1127.748203495403</v>
+        <v>950.1045973369969</v>
       </c>
       <c r="E2" t="n">
-        <v>741.9599508971592</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>735.0144501479557</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4328,19 +4328,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535337</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559525</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>480.6870701241381</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1638.191681214136</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W4" t="n">
-        <v>1478.501411349798</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X4" t="n">
-        <v>1250.51186045178</v>
+        <v>662.3355349543779</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>662.3355349543779</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1501.213961756484</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="C5" t="n">
-        <v>1501.213961756484</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4586,7 +4586,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2336.581195395918</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796418</v>
+        <v>1963.115437134838</v>
       </c>
       <c r="Y5" t="n">
-        <v>1887.813801820606</v>
+        <v>1572.976105159027</v>
       </c>
     </row>
     <row r="6">
@@ -4638,13 +4638,13 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1914.135768168901</v>
+        <v>1123.764238850934</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>834.3470688139736</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>606.3575179159562</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>385.5649387724261</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1878.169188758596</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C8" t="n">
-        <v>1509.206671818184</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="D8" t="n">
-        <v>1150.940973211434</v>
+        <v>563.5047572728747</v>
       </c>
       <c r="E8" t="n">
-        <v>765.1527206131893</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F8" t="n">
-        <v>354.1668158235818</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609172</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265602</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995487</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758596</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031485</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>968.8505838746323</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>679.4334138376717</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>679.4334138376717</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>458.6408346941415</v>
       </c>
     </row>
     <row r="11">
@@ -5018,64 +5018,64 @@
         <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168627</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W11" t="n">
         <v>3467.98095685289</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468473</v>
+        <v>589.1422692637309</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167293</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5176,25 +5176,25 @@
         <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121652</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851784</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851784</v>
+        <v>366.9636532421617</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611467</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191927</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349518</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
         <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,19 +5501,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075805</v>
@@ -5525,28 +5525,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>842.6091804069463</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459595</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180527</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>449.4852666057169</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817747</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919729</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761993</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,28 +5999,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,52 +6221,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>881.3796452313796</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.8431516380886</v>
+        <v>642.8692823226939</v>
       </c>
       <c r="C31" t="n">
-        <v>572.9069687101817</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168602</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,40 +6710,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793924</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348531</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6929,13 +6929,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075811</v>
@@ -6947,16 +6947,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793924</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>741.843151638089</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>591.7265122257533</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793924</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7391,40 +7391,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>228.5361496476756</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>144.6341900408522</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>35.40333084624481</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864828</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>62.35543909864822</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>105.2672314396017</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>63.36835372228707</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>184.0188038644575</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>127.725524766796</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>61.40075786968296</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253403</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>45.71423459433126</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>32.15184655856211</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>205.8445769401539</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="D2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.5996900059</v>
+      </c>
+      <c r="G2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="H2" t="n">
+        <v>807146.5996900058</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="J2" t="n">
         <v>807146.5996900063</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="L2" t="n">
         <v>807146.5996900065</v>
       </c>
-      <c r="G2" t="n">
-        <v>807146.5996900059</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="N2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="I2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.5996900061</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900063</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073558</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820635</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820628</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685497</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685492</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685506</v>
+        <v>14216.75207685502</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
@@ -26439,22 +26439,22 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.752076855</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26479,10 +26479,10 @@
         <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-709040.7032729092</v>
       </c>
       <c r="C6" t="n">
-        <v>619704.0424546837</v>
+        <v>619704.0424546836</v>
       </c>
       <c r="D6" t="n">
-        <v>619704.0424546835</v>
+        <v>619704.0424546833</v>
       </c>
       <c r="E6" t="n">
-        <v>366394.8559818887</v>
+        <v>366360.1180564525</v>
       </c>
       <c r="F6" t="n">
-        <v>691807.3177892446</v>
+        <v>691772.5798638079</v>
       </c>
       <c r="G6" t="n">
-        <v>691807.317789244</v>
+        <v>691772.5798638084</v>
       </c>
       <c r="H6" t="n">
-        <v>691807.3177892441</v>
+        <v>691772.5798638079</v>
       </c>
       <c r="I6" t="n">
-        <v>691807.317789244</v>
+        <v>691772.5798638086</v>
       </c>
       <c r="J6" t="n">
-        <v>474276.1153919666</v>
+        <v>474241.377466531</v>
       </c>
       <c r="K6" t="n">
-        <v>691807.3177892441</v>
+        <v>691772.5798638082</v>
       </c>
       <c r="L6" t="n">
-        <v>691807.3177892442</v>
+        <v>691772.5798638086</v>
       </c>
       <c r="M6" t="n">
-        <v>606752.2898537322</v>
+        <v>606717.5519282963</v>
       </c>
       <c r="N6" t="n">
-        <v>691807.317789244</v>
+        <v>691772.5798638085</v>
       </c>
       <c r="O6" t="n">
-        <v>691807.3177892439</v>
+        <v>691772.5798638086</v>
       </c>
       <c r="P6" t="n">
-        <v>691807.3177892442</v>
+        <v>691772.5798638086</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26790,34 +26790,34 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>261.1562795319077</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>85.28910943508532</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>128.4296311708957</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>9.99984119336338</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>175.6332859899779</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>261.9597511231264</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>239.1104512034317</v>
+        <v>241.1046026619165</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>202.3131914224627</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>167.7205030288951</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911114</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>87.74008423537771</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,10 +28087,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1.350276212680659e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28102,10 +28102,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28147,16 +28147,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>-4.816119231638012e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28336,10 +28336,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-2.608880087759136e-12</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.436047097567689e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31601,7 +31601,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31838,16 +31838,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>469.5567819573398</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071787</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>334.769386094615</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.6544928674244</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>151.9914336104057</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32160,31 +32160,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
         <v>0.1345549672467222</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>191.3323016788542</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175656</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070476</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33181,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>247.3820194983578</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>422.1299181110988</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,46 +33570,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192562</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,46 +33807,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192562</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>345.1232217852615</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,46 +34044,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>200.3460366764701</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>327.4227480353215</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238455</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>200.7949786802847</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>20.64972152707244</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552088</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902929</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237143</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>283.5755383312246</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113578</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359229</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359229</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>57.74979223202568</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
